--- a/pred_ohlcv/54_21/2019-10-25 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 FNB ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-804518.9505555559</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-957854.349755556</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-957843.349755556</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1082527.556155556</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-545391.332355556</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-555391.332355556</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6528495.471644443</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6281286.945344443</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7636487.845907947</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6494432.639515193</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8812323.350215193</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13667798.83317724</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>15356531.07847724</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>16184600.50847724</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>14720724.17097724</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>16126066.59869898</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15592427.82059898</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>14160187.71080701</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>15211367.69810702</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>15285379.47550702</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>15285419.47550702</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>15092156.76700702</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>15091762.55190702</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 FNB ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-832828.8251555559</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-804518.9505555559</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1135453.744155556</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1131161.345055556</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-985609.951255556</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1051991.737455556</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-957854.349755556</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-957864.349755556</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-957843.349755556</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1100901.921155556</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1082527.556155556</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1092429.876155556</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-545391.332355556</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-555391.332355556</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-555351.332355556</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-555351.332355556</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6528495.471644443</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6281286.945344443</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7636487.845907947</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6494432.639515193</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8812323.350215193</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>16000734.46547724</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14960441.73107724</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13667798.83317724</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>15356531.07847724</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15461062.07567724</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>14607862.45037724</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>14720724.17097724</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14285168.46397724</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1661743.290267079</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1534708.482567079</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2673044.964067078</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2668018.964867078</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2673433.026667078</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-2673423.026667078</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-2669325.348567078</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
